--- a/output/experiments/thesis_value_of_information/uniform-hour/6h-bat-Feb-disturbance-type.xlsx
+++ b/output/experiments/thesis_value_of_information/uniform-hour/6h-bat-Feb-disturbance-type.xlsx
@@ -271,7 +271,7 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.04-by_execution-2023-09-18_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.06-by_execution-2023-09-18_001.xlsx</t>
@@ -283,28 +283,28 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.08-by_execution-2023-09-18_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.09-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.09-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.1-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.1-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.15-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.15-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.2-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.2-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.25-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.25-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.3-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.3-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.35-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.35-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.4-by_execution-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.4-by_execution-2023-09-19_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform_pos-0.001-by_execution-2023-09-09_001.xlsx</t>
@@ -415,58 +415,58 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform_neg-0.4-by_execution-2023-09-10_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.001-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.001-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.005-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.005-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.01-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.01-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.02-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.02-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.03-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.03-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.04-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.04-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.06-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.06-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.07-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.07-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.08-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.08-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.09-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.09-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.1-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.1-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.15-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.15-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.2-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.2-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.25-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.25-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.3-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.3-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.35-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.35-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.4-minimize_cap-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.4-minimize_cap-2023-09-19_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform_pos-0.001-minimize_cap-2023-09-10_001.xlsx</t>
@@ -577,34 +577,34 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform_neg-0.4-minimize_cap-2023-09-10_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.001-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.001-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.005-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.005-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.01-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.01-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.02-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.02-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.03-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.03-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.04-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.04-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.05-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.06-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.06-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.07-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.07-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.08-zero-2023-09-18_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-3.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.08-zero-2023-09-19_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-uniform-0.09-zero-2023-09-18_001.xlsx</t>
@@ -2575,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>0.6</v>
@@ -2635,22 +2635,22 @@
         <v>74</v>
       </c>
       <c r="V10">
-        <v>435.2001200122438</v>
+        <v>468.9815551758146</v>
       </c>
       <c r="W10">
         <v>27.98958333333333</v>
       </c>
       <c r="X10">
-        <v>3330.461224182043</v>
+        <v>3174.026125719771</v>
       </c>
       <c r="Y10" t="s">
         <v>85</v>
       </c>
       <c r="Z10">
-        <v>435.2001200122438</v>
+        <v>468.9815551758146</v>
       </c>
       <c r="AA10">
-        <v>417.2001200122438</v>
+        <v>450.9815551758146</v>
       </c>
       <c r="AB10">
         <v>18</v>
@@ -2671,19 +2671,19 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.1738401587296664</v>
+        <v>0.1873341119270733</v>
       </c>
       <c r="AI10">
-        <v>0.1738401587296664</v>
+        <v>0.1873341119270733</v>
       </c>
       <c r="AJ10">
-        <v>0.1666500806179096</v>
+        <v>0.1801440338153164</v>
       </c>
       <c r="AL10">
-        <v>175.1761366756085</v>
+        <v>208.8108200684465</v>
       </c>
       <c r="AM10">
-        <v>242.0239833366353</v>
+        <v>242.1707351073681</v>
       </c>
       <c r="AO10">
         <v>69.49013770003722</v>
@@ -2701,25 +2701,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT10">
-        <v>1803.731350851469</v>
+        <v>1802.918964812477</v>
       </c>
       <c r="AU10">
-        <v>19.55066599860237</v>
+        <v>19.08736650360509</v>
       </c>
       <c r="AV10">
-        <v>244.522134120033</v>
+        <v>244.6295899197596</v>
       </c>
       <c r="AW10">
-        <v>2.4981507833977</v>
+        <v>2.458854812391484</v>
       </c>
       <c r="AX10">
-        <v>291.9602277926809</v>
+        <v>348.0180334474109</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>2.690090919115957E-18</v>
       </c>
       <c r="BA10">
         <v>-10.4410193053759</v>
@@ -3231,7 +3231,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="O14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>0.6</v>
@@ -3291,22 +3291,22 @@
         <v>74</v>
       </c>
       <c r="V14">
-        <v>441.4575402269626</v>
+        <v>474.9864316247807</v>
       </c>
       <c r="W14">
         <v>27.98958333333333</v>
       </c>
       <c r="X14">
-        <v>4097.615068533923</v>
+        <v>3133.182926543988</v>
       </c>
       <c r="Y14" t="s">
         <v>89</v>
       </c>
       <c r="Z14">
-        <v>441.4575402269626</v>
+        <v>474.9864316247807</v>
       </c>
       <c r="AA14">
-        <v>423.4575402269626</v>
+        <v>456.9864316247807</v>
       </c>
       <c r="AB14">
         <v>18</v>
@@ -3327,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.1763396776253283</v>
+        <v>0.1897327525226019</v>
       </c>
       <c r="AI14">
-        <v>0.1763396776253283</v>
+        <v>0.1897327525226019</v>
       </c>
       <c r="AJ14">
-        <v>0.1691495995135714</v>
+        <v>0.182542674410845</v>
       </c>
       <c r="AL14">
-        <v>180.2071260160953</v>
+        <v>213.9846060160953</v>
       </c>
       <c r="AM14">
-        <v>243.2504142108673</v>
+        <v>243.0018256086853</v>
       </c>
       <c r="AO14">
         <v>69.49013770003722</v>
@@ -3348,7 +3348,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ14">
-        <v>606.3691333176366</v>
+        <v>606.3691333176374</v>
       </c>
       <c r="AR14">
         <v>2503.449854121512</v>
@@ -3357,19 +3357,19 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT14">
-        <v>1819.388247161342</v>
+        <v>1818.655333291626</v>
       </c>
       <c r="AU14">
-        <v>35.19442500968009</v>
+        <v>34.52493938662408</v>
       </c>
       <c r="AV14">
-        <v>247.7564557422903</v>
+        <v>247.4402080173537</v>
       </c>
       <c r="AW14">
-        <v>4.50604153142305</v>
+        <v>4.438382408668389</v>
       </c>
       <c r="AX14">
-        <v>300.3452100268256</v>
+        <v>356.6410100268256</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
@@ -3434,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="O15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <v>0.6</v>
@@ -3455,22 +3455,22 @@
         <v>74</v>
       </c>
       <c r="V15">
-        <v>443.014782601014</v>
+        <v>476.5502988808049</v>
       </c>
       <c r="W15">
         <v>27.98958333333333</v>
       </c>
       <c r="X15">
-        <v>3800.653472725768</v>
+        <v>3146.764300215058</v>
       </c>
       <c r="Y15" t="s">
         <v>90</v>
       </c>
       <c r="Z15">
-        <v>443.014782601014</v>
+        <v>476.5502988808049</v>
       </c>
       <c r="AA15">
-        <v>425.014782601014</v>
+        <v>458.5502988808049</v>
       </c>
       <c r="AB15">
         <v>18</v>
@@ -3491,19 +3491,19 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0.1769617161980154</v>
+        <v>0.1903574373963371</v>
       </c>
       <c r="AI15">
-        <v>0.1769617161980154</v>
+        <v>0.1903574373963371</v>
       </c>
       <c r="AJ15">
-        <v>0.1697716380862585</v>
+        <v>0.1831673592845803</v>
       </c>
       <c r="AL15">
-        <v>181.4648733512171</v>
+        <v>215.242353351217</v>
       </c>
       <c r="AM15">
-        <v>243.5499092497969</v>
+        <v>243.3079455295879</v>
       </c>
       <c r="AO15">
         <v>69.49013770003722</v>
@@ -3512,34 +3512,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ15">
-        <v>606.3691333176369</v>
+        <v>606.3691333176364</v>
       </c>
       <c r="AR15">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS15">
         <v>747.2553716424334</v>
       </c>
       <c r="AT15">
-        <v>1823.143087725006</v>
+        <v>1822.993861663123</v>
       </c>
       <c r="AU15">
-        <v>38.95157464931017</v>
+        <v>38.78832639079452</v>
       </c>
       <c r="AV15">
-        <v>248.5384399891371</v>
+        <v>248.2799968241128</v>
       </c>
       <c r="AW15">
-        <v>4.988530739340205</v>
+        <v>4.972051294524878</v>
       </c>
       <c r="AX15">
-        <v>302.4414555853617</v>
+        <v>358.7372555853617</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>2.152072735292766E-17</v>
       </c>
       <c r="BA15">
         <v>-20.88203861075181</v>
@@ -3559,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>0.6</v>
@@ -3619,22 +3619,22 @@
         <v>74</v>
       </c>
       <c r="V16">
-        <v>450.879940918605</v>
+        <v>484.509754341743</v>
       </c>
       <c r="W16">
         <v>27.98958333333333</v>
       </c>
       <c r="X16">
-        <v>3731.838372588158</v>
+        <v>3345.951122201048</v>
       </c>
       <c r="Y16" t="s">
         <v>91</v>
       </c>
       <c r="Z16">
-        <v>450.879940918605</v>
+        <v>484.509754341743</v>
       </c>
       <c r="AA16">
-        <v>432.879940918605</v>
+        <v>466.509754341743</v>
       </c>
       <c r="AB16">
         <v>18</v>
@@ -3655,19 +3655,19 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.1801034441238384</v>
+        <v>0.1935368322014035</v>
       </c>
       <c r="AI16">
-        <v>0.1801034441238384</v>
+        <v>0.1935368322014035</v>
       </c>
       <c r="AJ16">
-        <v>0.1729133660120816</v>
+        <v>0.1863467540896466</v>
       </c>
       <c r="AL16">
-        <v>187.7536100268256</v>
+        <v>221.5310900268255</v>
       </c>
       <c r="AM16">
-        <v>245.1263308917795</v>
+        <v>244.9786643149175</v>
       </c>
       <c r="AO16">
         <v>69.49013770003722</v>
@@ -3676,28 +3676,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ16">
-        <v>606.3691333176362</v>
+        <v>606.3691333176366</v>
       </c>
       <c r="AR16">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS16">
         <v>747.2553716424334</v>
       </c>
       <c r="AT16">
-        <v>1843.110601381695</v>
+        <v>1841.789261805164</v>
       </c>
       <c r="AU16">
-        <v>58.83070673832982</v>
+        <v>57.51924680806628</v>
       </c>
       <c r="AV16">
-        <v>252.6250761360264</v>
+        <v>252.3799321778237</v>
       </c>
       <c r="AW16">
-        <v>7.498745244246892</v>
+        <v>7.401267862906217</v>
       </c>
       <c r="AX16">
-        <v>312.9226833780426</v>
+        <v>369.2184833780426</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -3762,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="O17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P17">
         <v>0.6</v>
@@ -3783,22 +3783,22 @@
         <v>74</v>
       </c>
       <c r="V17">
-        <v>458.8897862751201</v>
+        <v>492.5437545407138</v>
       </c>
       <c r="W17">
         <v>27.98958333333333</v>
       </c>
       <c r="X17">
-        <v>4076.515189969912</v>
+        <v>3144.727619115263</v>
       </c>
       <c r="Y17" t="s">
         <v>92</v>
       </c>
       <c r="Z17">
-        <v>458.8897862751201</v>
+        <v>492.5437545407138</v>
       </c>
       <c r="AA17">
-        <v>440.8897862751201</v>
+        <v>474.5437545407138</v>
       </c>
       <c r="AB17">
         <v>18</v>
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.1833029671114182</v>
+        <v>0.1967460038114296</v>
       </c>
       <c r="AI17">
-        <v>0.1833029671114182</v>
+        <v>0.1967460038114296</v>
       </c>
       <c r="AJ17">
-        <v>0.1761128889996613</v>
+        <v>0.1895559256996728</v>
       </c>
       <c r="AL17">
-        <v>194.0423467024341</v>
+        <v>227.8198267024341</v>
       </c>
       <c r="AM17">
-        <v>246.847439572686</v>
+        <v>246.7239278382798</v>
       </c>
       <c r="AO17">
         <v>69.49013770003722</v>
@@ -3840,7 +3840,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ17">
-        <v>606.3691333176369</v>
+        <v>606.3691333176371</v>
       </c>
       <c r="AR17">
         <v>2503.449854121512</v>
@@ -3849,19 +3849,19 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT17">
-        <v>1862.531153465274</v>
+        <v>1862.60696771997</v>
       </c>
       <c r="AU17">
-        <v>78.2109588235339</v>
+        <v>78.28599845699712</v>
       </c>
       <c r="AV17">
-        <v>256.8451951610365</v>
+        <v>256.7283725276492</v>
       </c>
       <c r="AW17">
-        <v>9.997755588350502</v>
+        <v>10.00444468936945</v>
       </c>
       <c r="AX17">
-        <v>323.4039111707235</v>
+        <v>379.6997111707235</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -3926,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>0.6</v>
@@ -3947,22 +3947,22 @@
         <v>74</v>
       </c>
       <c r="V18">
-        <v>466.8534899367867</v>
+        <v>500.4778822361694</v>
       </c>
       <c r="W18">
         <v>27.98958333333333</v>
       </c>
       <c r="X18">
-        <v>3707.308794307988</v>
+        <v>3239.813313942868</v>
       </c>
       <c r="Y18" t="s">
         <v>93</v>
       </c>
       <c r="Z18">
-        <v>466.8534899367867</v>
+        <v>500.4778822361694</v>
       </c>
       <c r="AA18">
-        <v>448.8534899367867</v>
+        <v>482.4778822361694</v>
       </c>
       <c r="AB18">
         <v>18</v>
@@ -3983,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.1864840588550997</v>
+        <v>0.199915281471373</v>
       </c>
       <c r="AI18">
-        <v>0.1864840588550997</v>
+        <v>0.199915281471373</v>
       </c>
       <c r="AJ18">
-        <v>0.1792939807433428</v>
+        <v>0.1927252033596161</v>
       </c>
       <c r="AL18">
-        <v>200.3310833780426</v>
+        <v>234.1085633780426</v>
       </c>
       <c r="AM18">
-        <v>248.5224065587442</v>
+        <v>248.3693188581268</v>
       </c>
       <c r="AO18">
         <v>69.49013770003722</v>
@@ -4004,28 +4004,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ18">
-        <v>606.3691333176372</v>
+        <v>606.3691333176362</v>
       </c>
       <c r="AR18">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS18">
         <v>747.2553716424334</v>
       </c>
       <c r="AT18">
-        <v>1881.592626928872</v>
+        <v>1881.195850286909</v>
       </c>
       <c r="AU18">
-        <v>97.29081999820252</v>
+        <v>96.84920656122641</v>
       </c>
       <c r="AV18">
-        <v>260.9307504977817</v>
+        <v>260.7801069161666</v>
       </c>
       <c r="AW18">
-        <v>12.40834393903757</v>
+        <v>12.41078805803977</v>
       </c>
       <c r="AX18">
-        <v>333.8851389634043</v>
+        <v>390.1809389634044</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="O19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>0.6</v>
@@ -4111,22 +4111,22 @@
         <v>74</v>
       </c>
       <c r="V19">
-        <v>474.7051710995337</v>
+        <v>508.2896297876676</v>
       </c>
       <c r="W19">
         <v>27.98958333333333</v>
       </c>
       <c r="X19">
-        <v>4086.210418561939</v>
+        <v>3275.409171572886</v>
       </c>
       <c r="Y19" t="s">
         <v>94</v>
       </c>
       <c r="Z19">
-        <v>474.7051710995337</v>
+        <v>508.2896297876676</v>
       </c>
       <c r="AA19">
-        <v>456.7051710995337</v>
+        <v>490.2896297876676</v>
       </c>
       <c r="AB19">
         <v>18</v>
@@ -4147,19 +4147,19 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.1896204033478087</v>
+        <v>0.2030356745316283</v>
       </c>
       <c r="AI19">
-        <v>0.1896204033478087</v>
+        <v>0.2030356745316283</v>
       </c>
       <c r="AJ19">
-        <v>0.1824303252360518</v>
+        <v>0.1958455964198715</v>
       </c>
       <c r="AL19">
-        <v>206.6198200536511</v>
+        <v>240.3973000536512</v>
       </c>
       <c r="AM19">
-        <v>250.0853510458826</v>
+        <v>249.8923297340165</v>
       </c>
       <c r="AO19">
         <v>69.49013770003722</v>
@@ -4168,28 +4168,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ19">
-        <v>606.3691333176364</v>
+        <v>606.3691333176366</v>
       </c>
       <c r="AR19">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS19">
         <v>747.2553716424334</v>
       </c>
       <c r="AT19">
-        <v>1898.131308019063</v>
+        <v>1898.369038892803</v>
       </c>
       <c r="AU19">
-        <v>113.8385028447553</v>
+        <v>113.9706444665038</v>
       </c>
       <c r="AV19">
-        <v>264.6324899635554</v>
+        <v>264.5183290922634</v>
       </c>
       <c r="AW19">
-        <v>14.54713891767282</v>
+        <v>14.62599935824691</v>
       </c>
       <c r="AX19">
-        <v>344.3663667560852</v>
+        <v>400.6621667560853</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -4254,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="O20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <v>0.6</v>
@@ -4275,22 +4275,22 @@
         <v>74</v>
       </c>
       <c r="V20">
-        <v>482.738447081062</v>
+        <v>516.3086182899121</v>
       </c>
       <c r="W20">
         <v>27.98958333333333</v>
       </c>
       <c r="X20">
-        <v>4309.231894759927</v>
+        <v>3428.158833740279</v>
       </c>
       <c r="Y20" t="s">
         <v>95</v>
       </c>
       <c r="Z20">
-        <v>482.738447081062</v>
+        <v>516.3086182899121</v>
       </c>
       <c r="AA20">
-        <v>464.738447081062</v>
+        <v>498.3086182899122</v>
       </c>
       <c r="AB20">
         <v>18</v>
@@ -4311,19 +4311,19 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0.1928292856700581</v>
+        <v>0.2062388497376516</v>
       </c>
       <c r="AI20">
-        <v>0.1928292856700581</v>
+        <v>0.2062388497376516</v>
       </c>
       <c r="AJ20">
-        <v>0.1856392075583012</v>
+        <v>0.1990487716258947</v>
       </c>
       <c r="AL20">
-        <v>212.9085567292597</v>
+        <v>246.6860367292596</v>
       </c>
       <c r="AM20">
-        <v>251.8298903518024</v>
+        <v>251.6225815606526</v>
       </c>
       <c r="AO20">
         <v>69.49013770003722</v>
@@ -4332,28 +4332,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ20">
-        <v>606.3691333176362</v>
+        <v>606.3691333176371</v>
       </c>
       <c r="AR20">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS20">
         <v>747.2553716424334</v>
       </c>
       <c r="AT20">
-        <v>1917.186228232535</v>
+        <v>1917.566835012707</v>
       </c>
       <c r="AU20">
-        <v>132.9098905285973</v>
+        <v>133.0360618526588</v>
       </c>
       <c r="AV20">
-        <v>268.6913989133184</v>
+        <v>268.5403458283835</v>
       </c>
       <c r="AW20">
-        <v>16.86150856151601</v>
+        <v>16.91776426773088</v>
       </c>
       <c r="AX20">
-        <v>354.847594548766</v>
+        <v>411.1433945487661</v>
       </c>
       <c r="AY20">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <v>0.6</v>
@@ -4439,22 +4439,22 @@
         <v>74</v>
       </c>
       <c r="V21">
-        <v>490.6813343831903</v>
+        <v>524.2502376688991</v>
       </c>
       <c r="W21">
         <v>27.98958333333333</v>
       </c>
       <c r="X21">
-        <v>3653.126182381064</v>
+        <v>3186.568310409784</v>
       </c>
       <c r="Y21" t="s">
         <v>96</v>
       </c>
       <c r="Z21">
-        <v>490.6813343831903</v>
+        <v>524.2502376688991</v>
       </c>
       <c r="AA21">
-        <v>472.6813343831903</v>
+        <v>506.2502376688991</v>
       </c>
       <c r="AB21">
         <v>18</v>
@@ -4475,19 +4475,19 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.196002062344235</v>
+        <v>0.2094111199414715</v>
       </c>
       <c r="AI21">
-        <v>0.196002062344235</v>
+        <v>0.2094111199414715</v>
       </c>
       <c r="AJ21">
-        <v>0.1888119842324781</v>
+        <v>0.2022210418297146</v>
       </c>
       <c r="AL21">
-        <v>219.1972934048682</v>
+        <v>252.9747734048682</v>
       </c>
       <c r="AM21">
-        <v>253.4840409783222</v>
+        <v>253.2754642640309</v>
       </c>
       <c r="AO21">
         <v>69.49013770003722</v>
@@ -4496,34 +4496,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ21">
-        <v>606.3691333176362</v>
+        <v>606.3691333176367</v>
       </c>
       <c r="AR21">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS21">
         <v>747.2553716424334</v>
       </c>
       <c r="AT21">
-        <v>1934.28940957002</v>
+        <v>1935.580502889243</v>
       </c>
       <c r="AU21">
-        <v>150.0487454154316</v>
+        <v>150.9117548155909</v>
       </c>
       <c r="AV21">
-        <v>272.4369969794457</v>
+        <v>272.295583806569</v>
       </c>
       <c r="AW21">
-        <v>18.9529560011235</v>
+        <v>19.02011954253809</v>
       </c>
       <c r="AX21">
-        <v>365.3288223414469</v>
+        <v>421.624622341447</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>5.684341886080801E-14</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>3.443316376468425E-16</v>
       </c>
       <c r="BA21">
         <v>-83.52815444300728</v>
@@ -10447,7 +10447,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -10486,7 +10486,7 @@
         <v>2</v>
       </c>
       <c r="O58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P58">
         <v>0.6</v>
@@ -10507,22 +10507,22 @@
         <v>75</v>
       </c>
       <c r="V58">
-        <v>376.7433457293757</v>
+        <v>376.7517340278518</v>
       </c>
       <c r="W58">
         <v>27.98958333333333</v>
       </c>
       <c r="X58">
-        <v>3328.672049075831</v>
+        <v>3279.761154914275</v>
       </c>
       <c r="Y58" t="s">
         <v>133</v>
       </c>
       <c r="Z58">
-        <v>376.7433457293757</v>
+        <v>376.7517340278518</v>
       </c>
       <c r="AA58">
-        <v>358.7433457293757</v>
+        <v>358.7517340278518</v>
       </c>
       <c r="AB58">
         <v>18</v>
@@ -10543,19 +10543,19 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>0.1504896713266019</v>
+        <v>0.1504930220222279</v>
       </c>
       <c r="AI58">
-        <v>0.1504896713266019</v>
+        <v>0.1504930220222279</v>
       </c>
       <c r="AJ58">
-        <v>0.143299593214845</v>
+        <v>0.143302943910471</v>
       </c>
       <c r="AL58">
-        <v>102.5703450449851</v>
+        <v>102.5696024335532</v>
       </c>
       <c r="AM58">
-        <v>256.5167423704582</v>
+        <v>256.5269234328358</v>
       </c>
       <c r="AO58">
         <v>69.49013770003722</v>
@@ -10564,34 +10564,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ58">
-        <v>606.3691333176369</v>
+        <v>606.3691333176359</v>
       </c>
       <c r="AR58">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS58">
         <v>747.2553716424334</v>
       </c>
       <c r="AT58">
-        <v>1779.085230448899</v>
+        <v>1779.083368367958</v>
       </c>
       <c r="AU58">
-        <v>0.262473545687569</v>
+        <v>0.2660595897718561</v>
       </c>
       <c r="AV58">
-        <v>256.55420070067</v>
+        <v>256.5651130154519</v>
       </c>
       <c r="AW58">
-        <v>0.03745833021178818</v>
+        <v>0.03818958261607167</v>
       </c>
       <c r="AX58">
-        <v>170.9505750749751</v>
+        <v>170.9493373892554</v>
       </c>
       <c r="AY58">
-        <v>56.74602768015372</v>
+        <v>56.91939036359901</v>
       </c>
       <c r="AZ58">
-        <v>0.3437416860675899</v>
+        <v>0.3447918385371966</v>
       </c>
       <c r="BA58">
         <v>-0.2088203861075186</v>
@@ -10611,7 +10611,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>58</v>
@@ -10650,7 +10650,7 @@
         <v>2</v>
       </c>
       <c r="O59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P59">
         <v>0.6</v>
@@ -10671,22 +10671,22 @@
         <v>75</v>
       </c>
       <c r="V59">
-        <v>377.3833120362284</v>
+        <v>377.3925358401373</v>
       </c>
       <c r="W59">
         <v>27.98958333333333</v>
       </c>
       <c r="X59">
-        <v>3328.770097452682</v>
+        <v>3293.876027221326</v>
       </c>
       <c r="Y59" t="s">
         <v>134</v>
       </c>
       <c r="Z59">
-        <v>377.3833120362284</v>
+        <v>377.3925358401373</v>
       </c>
       <c r="AA59">
-        <v>359.3833120362284</v>
+        <v>359.3925358401373</v>
       </c>
       <c r="AB59">
         <v>18</v>
@@ -10707,19 +10707,19 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>0.1507420715676643</v>
+        <v>0.1507436112446257</v>
       </c>
       <c r="AI59">
-        <v>0.1507420715676643</v>
+        <v>0.1507436112446257</v>
       </c>
       <c r="AJ59">
-        <v>0.1435521476847622</v>
+        <v>0.1435537896537911</v>
       </c>
       <c r="AL59">
-        <v>103.1005685760374</v>
+        <v>103.0968555188781</v>
       </c>
       <c r="AM59">
-        <v>256.6153375579086</v>
+        <v>256.6276069586577</v>
       </c>
       <c r="AO59">
         <v>69.49013770003722</v>
@@ -10728,34 +10728,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ59">
-        <v>606.4228340536069</v>
+        <v>606.4584522606949</v>
       </c>
       <c r="AR59">
-        <v>2503.503554857482</v>
+        <v>2503.53917306457</v>
       </c>
       <c r="AS59">
         <v>747.2553716424334</v>
       </c>
       <c r="AT59">
-        <v>1780.106885950076</v>
+        <v>1780.171560063428</v>
       </c>
       <c r="AU59">
-        <v>1.299275275286813</v>
+        <v>1.339099493337684</v>
       </c>
       <c r="AV59">
-        <v>256.8009607097722</v>
+        <v>256.819894746936</v>
       </c>
       <c r="AW59">
-        <v>0.1856231518635763</v>
+        <v>0.1922877882783708</v>
       </c>
       <c r="AX59">
-        <v>171.8342809600623</v>
+        <v>171.8280925314634</v>
       </c>
       <c r="AY59">
-        <v>54.90574649600696</v>
+        <v>54.79555991323315</v>
       </c>
       <c r="AZ59">
-        <v>0.3325940977175721</v>
+        <v>0.3319266373984432</v>
       </c>
       <c r="BA59">
         <v>-1.044101930537593</v>
@@ -10775,7 +10775,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
@@ -10814,7 +10814,7 @@
         <v>2</v>
       </c>
       <c r="O60">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>0.6</v>
@@ -10835,22 +10835,22 @@
         <v>75</v>
       </c>
       <c r="V60">
-        <v>378.1586251831332</v>
+        <v>378.176328507811</v>
       </c>
       <c r="W60">
         <v>27.98958333333333</v>
       </c>
       <c r="X60">
-        <v>3305.993008373305</v>
+        <v>3198.969259086065</v>
       </c>
       <c r="Y60" t="s">
         <v>135</v>
       </c>
       <c r="Z60">
-        <v>378.1586251831332</v>
+        <v>378.176328507811</v>
       </c>
       <c r="AA60">
-        <v>360.1586251831332</v>
+        <v>360.176328507811</v>
       </c>
       <c r="AB60">
         <v>18</v>
@@ -10871,19 +10871,19 @@
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>0.1510550029834064</v>
+        <v>0.1510620745549214</v>
       </c>
       <c r="AI60">
-        <v>0.1510550029834064</v>
+        <v>0.1510620745549214</v>
       </c>
       <c r="AJ60">
-        <v>0.1438649248716495</v>
+        <v>0.1438719964431646</v>
       </c>
       <c r="AL60">
-        <v>103.7633479898527</v>
+        <v>103.755921875534</v>
       </c>
       <c r="AM60">
-        <v>256.7340130281548</v>
+        <v>256.7696439918474</v>
       </c>
       <c r="AO60">
         <v>69.49013770003722</v>
@@ -10892,34 +10892,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ60">
-        <v>606.3691333176364</v>
+        <v>606.3691333176369</v>
       </c>
       <c r="AR60">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS60">
         <v>747.2553716424334</v>
       </c>
       <c r="AT60">
-        <v>1781.380156760002</v>
+        <v>1781.508438459543</v>
       </c>
       <c r="AU60">
-        <v>2.597747155823821</v>
+        <v>2.667886049946802</v>
       </c>
       <c r="AV60">
-        <v>257.105193567803</v>
+        <v>257.1520374262115</v>
       </c>
       <c r="AW60">
-        <v>0.3711805396481286</v>
+        <v>0.3823934343640535</v>
       </c>
       <c r="AX60">
-        <v>172.9389133164212</v>
+        <v>172.9265364592233</v>
       </c>
       <c r="AY60">
-        <v>55.91964501582341</v>
+        <v>57.65327185027593</v>
       </c>
       <c r="AZ60">
-        <v>0.3387358348743569</v>
+        <v>0.349237359570422</v>
       </c>
       <c r="BA60">
         <v>-2.088203861075186</v>
@@ -10939,7 +10939,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>58</v>
@@ -10978,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="O61">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>0.6</v>
@@ -10999,22 +10999,22 @@
         <v>75</v>
       </c>
       <c r="V61">
-        <v>379.7240676401805</v>
+        <v>379.7564542464482</v>
       </c>
       <c r="W61">
         <v>27.98958333333333</v>
       </c>
       <c r="X61">
-        <v>3336.588502686936</v>
+        <v>3294.715756762773</v>
       </c>
       <c r="Y61" t="s">
         <v>136</v>
       </c>
       <c r="Z61">
-        <v>379.7240676401805</v>
+        <v>379.7564542464482</v>
       </c>
       <c r="AA61">
-        <v>361.7240676401805</v>
+        <v>361.7564542464482</v>
       </c>
       <c r="AB61">
         <v>18</v>
@@ -11035,19 +11035,19 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>0.1516803170692748</v>
+        <v>0.1516878418888849</v>
       </c>
       <c r="AI61">
-        <v>0.1516803170692748</v>
+        <v>0.1516878418888849</v>
       </c>
       <c r="AJ61">
-        <v>0.1444902389575179</v>
+        <v>0.1444980202980503</v>
       </c>
       <c r="AL61">
-        <v>105.0889068174834</v>
+        <v>105.074054588846</v>
       </c>
       <c r="AM61">
-        <v>256.9683346006901</v>
+        <v>257.0217354967227</v>
       </c>
       <c r="AO61">
         <v>69.49013770003722</v>
@@ -11056,34 +11056,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ61">
-        <v>606.3691333176367</v>
+        <v>606.4584522606953</v>
       </c>
       <c r="AR61">
-        <v>2503.449854121512</v>
+        <v>2503.53917306457</v>
       </c>
       <c r="AS61">
         <v>747.2553716424334</v>
       </c>
       <c r="AT61">
-        <v>1783.959491570806</v>
+        <v>1784.299928162349</v>
       </c>
       <c r="AU61">
-        <v>5.219407813883752</v>
+        <v>5.391524824288885</v>
       </c>
       <c r="AV61">
-        <v>257.7127827977262</v>
+        <v>257.794936365569</v>
       </c>
       <c r="AW61">
-        <v>0.7444481970360417</v>
+        <v>0.7732008688462764</v>
       </c>
       <c r="AX61">
-        <v>175.148178029139</v>
+        <v>175.1234243147433</v>
       </c>
       <c r="AY61">
-        <v>55.00144205545639</v>
+        <v>56.01869572436144</v>
       </c>
       <c r="AZ61">
-        <v>0.3331737779929869</v>
+        <v>0.3393358391204861</v>
       </c>
       <c r="BA61">
         <v>-4.176407722150358</v>
@@ -11103,7 +11103,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>58</v>
@@ -11142,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="O62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>0.6</v>
@@ -11163,22 +11163,22 @@
         <v>75</v>
       </c>
       <c r="V62">
-        <v>381.3152679027346</v>
+        <v>381.295918706422</v>
       </c>
       <c r="W62">
         <v>27.98958333333333</v>
       </c>
       <c r="X62">
-        <v>3334.082211981993</v>
+        <v>3191.630784415174</v>
       </c>
       <c r="Y62" t="s">
         <v>137</v>
       </c>
       <c r="Z62">
-        <v>381.3152679027346</v>
+        <v>381.295918706422</v>
       </c>
       <c r="AA62">
-        <v>363.3152679027346</v>
+        <v>363.295918706422</v>
       </c>
       <c r="AB62">
         <v>18</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AH62">
-        <v>0.1523104858934436</v>
+        <v>0.1523081910662928</v>
       </c>
       <c r="AI62">
-        <v>0.1523104858934436</v>
+        <v>0.1523081910662928</v>
       </c>
       <c r="AJ62">
-        <v>0.1451206643026089</v>
+        <v>0.1451181129545359</v>
       </c>
       <c r="AL62">
-        <v>106.4144656451141</v>
+        <v>106.392187302158</v>
       </c>
       <c r="AM62">
-        <v>257.2135729904675</v>
+        <v>257.2639975207695</v>
       </c>
       <c r="AO62">
         <v>69.49013770003722</v>
@@ -11220,34 +11220,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ62">
-        <v>606.4584522606951</v>
+        <v>606.3691333176369</v>
       </c>
       <c r="AR62">
-        <v>2503.53917306457</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS62">
         <v>747.2553716424334</v>
       </c>
       <c r="AT62">
-        <v>1786.487767910563</v>
+        <v>1787.003014475356</v>
       </c>
       <c r="AU62">
-        <v>7.770575658273057</v>
+        <v>8.03046300255151</v>
       </c>
       <c r="AV62">
-        <v>258.3253216909454</v>
+        <v>258.4151144521519</v>
       </c>
       <c r="AW62">
-        <v>1.111748700477883</v>
+        <v>1.151116931382356</v>
       </c>
       <c r="AX62">
-        <v>177.3574427418568</v>
+        <v>177.3203121702633</v>
       </c>
       <c r="AY62">
-        <v>51.63323909508937</v>
+        <v>59.47393594683705</v>
       </c>
       <c r="AZ62">
-        <v>0.3127707328469858</v>
+        <v>0.3602661165054827</v>
       </c>
       <c r="BA62">
         <v>-6.264611583225545</v>
@@ -11267,7 +11267,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
@@ -11306,7 +11306,7 @@
         <v>2</v>
       </c>
       <c r="O63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>0.6</v>
@@ -11327,22 +11327,22 @@
         <v>75</v>
       </c>
       <c r="V63">
-        <v>382.8865372876921</v>
+        <v>382.8731390365376</v>
       </c>
       <c r="W63">
         <v>27.98958333333333</v>
       </c>
       <c r="X63">
-        <v>3881.908883143682</v>
+        <v>3231.853139857296</v>
       </c>
       <c r="Y63" t="s">
         <v>138</v>
       </c>
       <c r="Z63">
-        <v>382.8865372876921</v>
+        <v>382.8731390365376</v>
       </c>
       <c r="AA63">
-        <v>364.8865372876921</v>
+        <v>364.8731390365376</v>
       </c>
       <c r="AB63">
         <v>18</v>
@@ -11363,19 +11363,19 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>0.1529435617243675</v>
+        <v>0.1529382098092363</v>
       </c>
       <c r="AI63">
-        <v>0.1529435617243675</v>
+        <v>0.1529382098092363</v>
       </c>
       <c r="AJ63">
-        <v>0.1457534836126106</v>
+        <v>0.1457481316974794</v>
       </c>
       <c r="AL63">
-        <v>107.7400244727448</v>
+        <v>107.7103200154699</v>
       </c>
       <c r="AM63">
-        <v>257.4685624791776</v>
+        <v>257.5295627993489</v>
       </c>
       <c r="AO63">
         <v>69.49013770003722</v>
@@ -11384,7 +11384,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ63">
-        <v>606.3691333176362</v>
+        <v>606.3691333176359</v>
       </c>
       <c r="AR63">
         <v>2503.449854121511</v>
@@ -11393,25 +11393,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT63">
-        <v>1789.065869270685</v>
+        <v>1789.753561712812</v>
       </c>
       <c r="AU63">
-        <v>10.41460433565421</v>
+        <v>10.72580846909418</v>
       </c>
       <c r="AV63">
-        <v>258.9554758061515</v>
+        <v>259.0664932304511</v>
       </c>
       <c r="AW63">
-        <v>1.486913326973932</v>
+        <v>1.536930431102174</v>
       </c>
       <c r="AX63">
-        <v>179.5667074545747</v>
+        <v>179.5172000257833</v>
       </c>
       <c r="AY63">
-        <v>53.16503613472238</v>
+        <v>60.54329002675694</v>
       </c>
       <c r="AZ63">
-        <v>0.3220496642302472</v>
+        <v>0.3667437782813304</v>
       </c>
       <c r="BA63">
         <v>-8.352815444300731</v>
@@ -11431,7 +11431,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
         <v>58</v>
@@ -11470,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="O64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>0.6</v>
@@ -11491,22 +11491,22 @@
         <v>75</v>
       </c>
       <c r="V64">
-        <v>384.4790481600031</v>
+        <v>384.4808635839105</v>
       </c>
       <c r="W64">
         <v>27.98958333333333</v>
       </c>
       <c r="X64">
-        <v>3829.746611183044</v>
+        <v>3224.624397914391</v>
       </c>
       <c r="Y64" t="s">
         <v>139</v>
       </c>
       <c r="Z64">
-        <v>384.4790481600031</v>
+        <v>384.4808635839105</v>
       </c>
       <c r="AA64">
-        <v>366.4790481600031</v>
+        <v>366.4808635839105</v>
       </c>
       <c r="AB64">
         <v>18</v>
@@ -11527,19 +11527,19 @@
         <v>0</v>
       </c>
       <c r="AH64">
-        <v>0.1535687301000853</v>
+        <v>0.1535694552172155</v>
       </c>
       <c r="AI64">
-        <v>0.1535687301000853</v>
+        <v>0.1535694552172155</v>
       </c>
       <c r="AJ64">
-        <v>0.1463791650118697</v>
+        <v>0.1463798901289999</v>
       </c>
       <c r="AL64">
-        <v>109.0655833003755</v>
+        <v>109.028452728782</v>
       </c>
       <c r="AM64">
-        <v>257.7002704904473</v>
+        <v>257.7959503186564</v>
       </c>
       <c r="AO64">
         <v>69.49013770003722</v>
@@ -11548,34 +11548,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ64">
-        <v>606.5477712037541</v>
+        <v>606.5477712037548</v>
       </c>
       <c r="AR64">
-        <v>2503.628492007629</v>
+        <v>2503.62849200763</v>
       </c>
       <c r="AS64">
         <v>747.2553716424334</v>
       </c>
       <c r="AT64">
-        <v>1791.47001396087</v>
+        <v>1792.404907970608</v>
       </c>
       <c r="AU64">
-        <v>12.84905410100417</v>
+        <v>13.32816179786787</v>
       </c>
       <c r="AV64">
-        <v>259.5407456941412</v>
+        <v>259.7084169073811</v>
       </c>
       <c r="AW64">
-        <v>1.840475203693847</v>
+        <v>1.912466588724677</v>
       </c>
       <c r="AX64">
-        <v>181.7759721672925</v>
+        <v>181.7140878813033</v>
       </c>
       <c r="AY64">
-        <v>47.34683317435536</v>
+        <v>56.71264410667683</v>
       </c>
       <c r="AZ64">
-        <v>0.2868056308196148</v>
+        <v>0.3435394635279156</v>
       </c>
       <c r="BA64">
         <v>-10.4410193053759</v>
@@ -11595,7 +11595,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
@@ -11634,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="O65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P65">
         <v>0.6</v>
@@ -11655,22 +11655,22 @@
         <v>75</v>
       </c>
       <c r="V65">
-        <v>386.0081791450024</v>
+        <v>386.0866763184114</v>
       </c>
       <c r="W65">
         <v>27.98958333333333</v>
       </c>
       <c r="X65">
-        <v>3694.498315338977</v>
+        <v>3214.050427450798</v>
       </c>
       <c r="Y65" t="s">
         <v>140</v>
       </c>
       <c r="Z65">
-        <v>386.0081791450024</v>
+        <v>386.0866763184114</v>
       </c>
       <c r="AA65">
-        <v>368.0081791450024</v>
+        <v>368.0866763184114</v>
       </c>
       <c r="AB65">
         <v>18</v>
@@ -11691,19 +11691,19 @@
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>0.1541849967030841</v>
+        <v>0.1542108493935589</v>
       </c>
       <c r="AI65">
-        <v>0.1541849967030841</v>
+        <v>0.1542108493935589</v>
       </c>
       <c r="AJ65">
-        <v>0.1469951751122494</v>
+        <v>0.1470212843053432</v>
       </c>
       <c r="AL65">
-        <v>110.3911421280061</v>
+        <v>110.3465854420939</v>
       </c>
       <c r="AM65">
-        <v>257.9131215791991</v>
+        <v>258.0901080016213</v>
       </c>
       <c r="AO65">
         <v>69.49013770003722</v>
@@ -11712,34 +11712,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ65">
-        <v>606.4584522606949</v>
+        <v>606.5477712037548</v>
       </c>
       <c r="AR65">
-        <v>2503.53917306457</v>
+        <v>2503.62849200763</v>
       </c>
       <c r="AS65">
         <v>747.2553716424334</v>
       </c>
       <c r="AT65">
-        <v>1794.230659431455</v>
+        <v>1795.219064636687</v>
       </c>
       <c r="AU65">
-        <v>15.58902411019761</v>
+        <v>16.10075884627539</v>
       </c>
       <c r="AV65">
-        <v>260.1422652642026</v>
+        <v>260.3979031329281</v>
       </c>
       <c r="AW65">
-        <v>2.229143685003455</v>
+        <v>2.307795131306856</v>
       </c>
       <c r="AX65">
-        <v>183.9852368800102</v>
+        <v>183.9109757368232</v>
       </c>
       <c r="AY65">
-        <v>48.87863021398835</v>
+        <v>57.78199818659673</v>
       </c>
       <c r="AZ65">
-        <v>0.296084562202876</v>
+        <v>0.3500171253037633</v>
       </c>
       <c r="BA65">
         <v>-12.52922316645109</v>
@@ -11759,7 +11759,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
         <v>58</v>
@@ -11798,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="O66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>0.6</v>
@@ -11819,22 +11819,22 @@
         <v>75</v>
       </c>
       <c r="V66">
-        <v>387.564931048851</v>
+        <v>387.636086153833</v>
       </c>
       <c r="W66">
         <v>27.98958333333333</v>
       </c>
       <c r="X66">
-        <v>3868.467890825123</v>
+        <v>3251.211217987351</v>
       </c>
       <c r="Y66" t="s">
         <v>141</v>
       </c>
       <c r="Z66">
-        <v>387.564931048851</v>
+        <v>387.636086153833</v>
       </c>
       <c r="AA66">
-        <v>369.564931048851</v>
+        <v>369.636086153833</v>
       </c>
       <c r="AB66">
         <v>18</v>
@@ -11855,19 +11855,19 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>0.1548034966486041</v>
+        <v>0.1548352389786374</v>
       </c>
       <c r="AI66">
-        <v>0.1548034966486041</v>
+        <v>0.1548352389786374</v>
       </c>
       <c r="AJ66">
-        <v>0.1476138292756197</v>
+        <v>0.1476454173878027</v>
       </c>
       <c r="AL66">
-        <v>111.7167009556369</v>
+        <v>111.6647181554059</v>
       </c>
       <c r="AM66">
-        <v>258.1298298329382</v>
+        <v>258.3427037737713</v>
       </c>
       <c r="AO66">
         <v>69.49013770003722</v>
@@ -11876,34 +11876,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ66">
-        <v>606.5121529966656</v>
+        <v>606.4584522606956</v>
       </c>
       <c r="AR66">
-        <v>2503.59287380054</v>
+        <v>2503.539173064571</v>
       </c>
       <c r="AS66">
         <v>747.2553716424334</v>
       </c>
       <c r="AT66">
-        <v>1796.728298438606</v>
+        <v>1797.896722472135</v>
       </c>
       <c r="AU66">
-        <v>18.0782915209349</v>
+        <v>18.71066955983272</v>
       </c>
       <c r="AV66">
-        <v>260.7140104620502</v>
+        <v>261.0272519502111</v>
       </c>
       <c r="AW66">
-        <v>2.584180629112039</v>
+        <v>2.684548176439716</v>
       </c>
       <c r="AX66">
-        <v>186.1945015927281</v>
+        <v>186.1078635923432</v>
       </c>
       <c r="AY66">
-        <v>46.48742725362141</v>
+        <v>61.30135226651662</v>
       </c>
       <c r="AZ66">
-        <v>0.2815997397240365</v>
+        <v>0.3713357753442419</v>
       </c>
       <c r="BA66">
         <v>-14.61742702752628</v>
@@ -11923,7 +11923,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>58</v>
@@ -11962,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="O67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <v>0.6</v>
@@ -11983,22 +11983,22 @@
         <v>75</v>
       </c>
       <c r="V67">
-        <v>389.1435557738948</v>
+        <v>389.2111452390226</v>
       </c>
       <c r="W67">
         <v>27.98958333333333</v>
       </c>
       <c r="X67">
-        <v>3894.258492600173</v>
+        <v>3169.92598499218</v>
       </c>
       <c r="Y67" t="s">
         <v>142</v>
       </c>
       <c r="Z67">
-        <v>389.1435557738948</v>
+        <v>389.2111452390226</v>
       </c>
       <c r="AA67">
-        <v>371.1435557738948</v>
+        <v>371.2111452390226</v>
       </c>
       <c r="AB67">
         <v>18</v>
@@ -12019,19 +12019,19 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>0.1554429201500621</v>
+        <v>0.1554665838136506</v>
       </c>
       <c r="AI67">
-        <v>0.1554429201500621</v>
+        <v>0.1554665838136506</v>
       </c>
       <c r="AJ67">
-        <v>0.1482528420383052</v>
+        <v>0.1482766599307485</v>
       </c>
       <c r="AL67">
-        <v>113.0422597832676</v>
+        <v>112.982850868718</v>
       </c>
       <c r="AM67">
-        <v>258.4010974273319</v>
+        <v>258.6120260300919</v>
       </c>
       <c r="AO67">
         <v>69.49013770003722</v>
@@ -12040,34 +12040,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ67">
-        <v>606.3691333176367</v>
+        <v>606.4228340536056</v>
       </c>
       <c r="AR67">
-        <v>2503.449854121512</v>
+        <v>2503.503554857481</v>
       </c>
       <c r="AS67">
         <v>747.2553716424334</v>
       </c>
       <c r="AT67">
-        <v>1799.458955144688</v>
+        <v>1800.695888020286</v>
       </c>
       <c r="AU67">
-        <v>20.80186868718783</v>
+        <v>21.41734467982324</v>
       </c>
       <c r="AV67">
-        <v>261.368557753952</v>
+        <v>261.6839836921448</v>
       </c>
       <c r="AW67">
-        <v>2.967460326620027</v>
+        <v>3.071957662052909</v>
       </c>
       <c r="AX67">
-        <v>188.403766305446</v>
+        <v>188.3047514478633</v>
       </c>
       <c r="AY67">
-        <v>49.49222429325427</v>
+        <v>63.34770634643655</v>
       </c>
       <c r="AZ67">
-        <v>0.2998014367047668</v>
+        <v>0.3837316597872508</v>
       </c>
       <c r="BA67">
         <v>-16.70563088860146</v>
@@ -12087,7 +12087,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
         <v>58</v>
@@ -12126,7 +12126,7 @@
         <v>2</v>
       </c>
       <c r="O68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P68">
         <v>0.6</v>
@@ -12147,22 +12147,22 @@
         <v>75</v>
       </c>
       <c r="V68">
-        <v>390.7957021583366</v>
+        <v>390.7711784933786</v>
       </c>
       <c r="W68">
         <v>27.98958333333333</v>
       </c>
       <c r="X68">
-        <v>3451.5809361469</v>
+        <v>3140.231589464936</v>
       </c>
       <c r="Y68" t="s">
         <v>143</v>
       </c>
       <c r="Z68">
-        <v>390.7957021583366</v>
+        <v>390.7711784933786</v>
       </c>
       <c r="AA68">
-        <v>372.7957021583366</v>
+        <v>372.7711784933786</v>
       </c>
       <c r="AB68">
         <v>18</v>
@@ -12183,19 +12183,19 @@
         <v>0</v>
       </c>
       <c r="AH68">
-        <v>0.1560939505172402</v>
+        <v>0.1560930720661488</v>
       </c>
       <c r="AI68">
-        <v>0.1560939505172402</v>
+        <v>0.1560930720661488</v>
       </c>
       <c r="AJ68">
-        <v>0.1489042831442558</v>
+        <v>0.1489029939543919</v>
       </c>
       <c r="AL68">
-        <v>114.3678186108982</v>
+        <v>114.3009835820299</v>
       </c>
       <c r="AM68">
-        <v>258.6983591733997</v>
+        <v>258.8693269985092</v>
       </c>
       <c r="AO68">
         <v>69.49013770003722</v>
@@ -12204,34 +12204,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ68">
-        <v>606.512152996665</v>
+        <v>606.3691333176355</v>
       </c>
       <c r="AR68">
-        <v>2503.59287380054</v>
+        <v>2503.44985412151</v>
       </c>
       <c r="AS68">
         <v>747.2553716424334</v>
       </c>
       <c r="AT68">
-        <v>1802.229213343272</v>
+        <v>1803.338731399138</v>
       </c>
       <c r="AU68">
-        <v>23.58437996567773</v>
+        <v>23.99541989497572</v>
       </c>
       <c r="AV68">
-        <v>262.0611683471231</v>
+        <v>262.3130799278143</v>
       </c>
       <c r="AW68">
-        <v>3.362809173723398</v>
+        <v>3.44375292930504</v>
       </c>
       <c r="AX68">
-        <v>190.6130310181637</v>
+        <v>190.5016393033832</v>
       </c>
       <c r="AY68">
-        <v>44.65102133288731</v>
+        <v>65.89006042635643</v>
       </c>
       <c r="AZ68">
-        <v>0.270475625961296</v>
+        <v>0.3991320871605684</v>
       </c>
       <c r="BA68">
         <v>-18.79383474967663</v>
@@ -12251,7 +12251,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
         <v>58</v>
@@ -12290,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="O69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>0.6</v>
@@ -12311,22 +12311,22 @@
         <v>75</v>
       </c>
       <c r="V69">
-        <v>392.345885487852</v>
+        <v>392.3586863398343</v>
       </c>
       <c r="W69">
         <v>27.98958333333333</v>
       </c>
       <c r="X69">
-        <v>3870.98540912196</v>
+        <v>2657.86328131007</v>
       </c>
       <c r="Y69" t="s">
         <v>144</v>
       </c>
       <c r="Z69">
-        <v>392.345885487852</v>
+        <v>392.3586863398343</v>
       </c>
       <c r="AA69">
-        <v>374.345885487852</v>
+        <v>374.3586863398343</v>
       </c>
       <c r="AB69">
         <v>18</v>
@@ -12347,19 +12347,19 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>0.1567164954753167</v>
+        <v>0.156721608577648</v>
       </c>
       <c r="AI69">
-        <v>0.1567164954753167</v>
+        <v>0.156721608577648</v>
       </c>
       <c r="AJ69">
-        <v>0.1495266738844821</v>
+        <v>0.1495317869868134</v>
       </c>
       <c r="AL69">
-        <v>115.693377438529</v>
+        <v>115.6191162953419</v>
       </c>
       <c r="AM69">
-        <v>258.9263443840004</v>
+        <v>259.1303388051642</v>
       </c>
       <c r="AO69">
         <v>69.49013770003722</v>
@@ -12368,7 +12368,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ69">
-        <v>606.4584522606964</v>
+        <v>606.4584522606963</v>
       </c>
       <c r="AR69">
         <v>2503.539173064571</v>
@@ -12377,25 +12377,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT69">
-        <v>1805.041222209076</v>
+        <v>1806.137829952006</v>
       </c>
       <c r="AU69">
-        <v>26.39380732319692</v>
+        <v>26.72285075215786</v>
       </c>
       <c r="AV69">
-        <v>262.6902464369255</v>
+        <v>262.9657275275565</v>
       </c>
       <c r="AW69">
-        <v>3.763902052925043</v>
+        <v>3.835388722392204</v>
       </c>
       <c r="AX69">
-        <v>192.8222957308816</v>
+        <v>192.6985271589031</v>
       </c>
       <c r="AY69">
-        <v>45.20581837252026</v>
+        <v>64.50941450627637</v>
       </c>
       <c r="AZ69">
-        <v>0.2738363346773959</v>
+        <v>0.3907687606717851</v>
       </c>
       <c r="BA69">
         <v>-20.88203861075181</v>
@@ -12415,7 +12415,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>58</v>
@@ -12454,7 +12454,7 @@
         <v>2</v>
       </c>
       <c r="O70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>0.6</v>
@@ -12475,22 +12475,22 @@
         <v>75</v>
       </c>
       <c r="V70">
-        <v>400.1585670733689</v>
+        <v>400.1779629964175</v>
       </c>
       <c r="W70">
         <v>27.98958333333333</v>
       </c>
       <c r="X70">
-        <v>3756.409151195083</v>
+        <v>2699.338630758692</v>
       </c>
       <c r="Y70" t="s">
         <v>145</v>
       </c>
       <c r="Z70">
-        <v>400.1585670733689</v>
+        <v>400.1779629964175</v>
       </c>
       <c r="AA70">
-        <v>382.1585670733689</v>
+        <v>382.1779629964175</v>
       </c>
       <c r="AB70">
         <v>18</v>
@@ -12511,19 +12511,19 @@
         <v>0</v>
       </c>
       <c r="AH70">
-        <v>0.1598428530192346</v>
+        <v>0.159847171864391</v>
       </c>
       <c r="AI70">
-        <v>0.1598428530192346</v>
+        <v>0.159847171864391</v>
       </c>
       <c r="AJ70">
-        <v>0.1526527749074777</v>
+        <v>0.1526572479814889</v>
       </c>
       <c r="AL70">
-        <v>122.3211715766824</v>
+        <v>122.2097798619018</v>
       </c>
       <c r="AM70">
-        <v>260.0982625352217</v>
+        <v>260.3972584267339</v>
       </c>
       <c r="AO70">
         <v>69.49013770003722</v>
@@ -12532,34 +12532,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ70">
-        <v>606.3691333176362</v>
+        <v>606.4228340536065</v>
       </c>
       <c r="AR70">
-        <v>2503.449854121511</v>
+        <v>2503.503554857482</v>
       </c>
       <c r="AS70">
         <v>747.2553716424334</v>
       </c>
       <c r="AT70">
-        <v>1817.098741845012</v>
+        <v>1819.828246751821</v>
       </c>
       <c r="AU70">
-        <v>38.56511230459277</v>
+        <v>39.92954022355396</v>
       </c>
       <c r="AV70">
-        <v>265.619347720992</v>
+        <v>266.1307002258669</v>
       </c>
       <c r="AW70">
-        <v>5.521085185770241</v>
+        <v>5.733441799133087</v>
       </c>
       <c r="AX70">
-        <v>203.8686192944707</v>
+        <v>203.6829664365031</v>
       </c>
       <c r="AY70">
-        <v>43.06480357068517</v>
+        <v>70.83318490587578</v>
       </c>
       <c r="AZ70">
-        <v>0.2608670385351771</v>
+        <v>0.4290752922181837</v>
       </c>
       <c r="BA70">
         <v>-31.32305791612774</v>
@@ -12618,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="O71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>0.6</v>
@@ -12743,7 +12743,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
         <v>58</v>
@@ -12782,7 +12782,7 @@
         <v>2</v>
       </c>
       <c r="O72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>0.6</v>
@@ -12803,22 +12803,22 @@
         <v>75</v>
       </c>
       <c r="V72">
-        <v>415.7910089828694</v>
+        <v>415.8779531344852</v>
       </c>
       <c r="W72">
         <v>27.98958333333333</v>
       </c>
       <c r="X72">
-        <v>3692.515150283929</v>
+        <v>2675.471792721655</v>
       </c>
       <c r="Y72" t="s">
         <v>147</v>
       </c>
       <c r="Z72">
-        <v>415.7910089828694</v>
+        <v>415.8779531344852</v>
       </c>
       <c r="AA72">
-        <v>397.7910089828694</v>
+        <v>397.8779531344852</v>
       </c>
       <c r="AB72">
         <v>18</v>
@@ -12839,19 +12839,19 @@
         <v>0</v>
       </c>
       <c r="AH72">
-        <v>0.166087212930724</v>
+        <v>0.1661219426663617</v>
       </c>
       <c r="AI72">
-        <v>0.166087212930724</v>
+        <v>0.1661219426663617</v>
       </c>
       <c r="AJ72">
-        <v>0.1588971348189671</v>
+        <v>0.1589318645546048</v>
       </c>
       <c r="AL72">
-        <v>135.5767598529894</v>
+        <v>135.3911069950217</v>
       </c>
       <c r="AM72">
-        <v>262.4194955996015</v>
+        <v>262.9896208150376</v>
       </c>
       <c r="AO72">
         <v>69.49013770003722</v>
@@ -12860,7 +12860,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ72">
-        <v>606.3691333176364</v>
+        <v>606.3691333176362</v>
       </c>
       <c r="AR72">
         <v>2503.449854121511</v>
@@ -12869,25 +12869,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT72">
-        <v>1842.064320286465</v>
+        <v>1848.141599681505</v>
       </c>
       <c r="AU72">
-        <v>63.41580742892296</v>
+        <v>67.21092819032074</v>
       </c>
       <c r="AV72">
-        <v>271.4940972133263</v>
+        <v>272.6169525969251</v>
       </c>
       <c r="AW72">
-        <v>9.074601613724765</v>
+        <v>9.627331781887506</v>
       </c>
       <c r="AX72">
-        <v>225.9612664216489</v>
+        <v>225.6518449917029</v>
       </c>
       <c r="AY72">
-        <v>33.88277396701498</v>
+        <v>82.99972570507474</v>
       </c>
       <c r="AZ72">
-        <v>0.2052464697214771</v>
+        <v>0.5027746755741298</v>
       </c>
       <c r="BA72">
         <v>-52.20509652687954</v>
@@ -12907,7 +12907,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -12946,7 +12946,7 @@
         <v>2</v>
       </c>
       <c r="O73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>0.6</v>
@@ -12967,22 +12967,22 @@
         <v>75</v>
       </c>
       <c r="V73">
-        <v>423.5162655491133</v>
+        <v>423.7143388877348</v>
       </c>
       <c r="W73">
         <v>27.98958333333333</v>
       </c>
       <c r="X73">
-        <v>3421.998627593275</v>
+        <v>2690.905400461052</v>
       </c>
       <c r="Y73" t="s">
         <v>148</v>
       </c>
       <c r="Z73">
-        <v>423.5162655491133</v>
+        <v>423.7143388877348</v>
       </c>
       <c r="AA73">
-        <v>405.5162655491133</v>
+        <v>405.7143388877348</v>
       </c>
       <c r="AB73">
         <v>18</v>
@@ -13003,19 +13003,19 @@
         <v>0</v>
       </c>
       <c r="AH73">
-        <v>0.1691730572720938</v>
+        <v>0.1692521774263463</v>
       </c>
       <c r="AI73">
-        <v>0.1691730572720938</v>
+        <v>0.1692521774263463</v>
       </c>
       <c r="AJ73">
-        <v>0.1619829791603369</v>
+        <v>0.1620620993145894</v>
       </c>
       <c r="AL73">
-        <v>142.2045539911428</v>
+        <v>141.9817705615817</v>
       </c>
       <c r="AM73">
-        <v>263.4891477432851</v>
+        <v>264.2677313106065</v>
       </c>
       <c r="AO73">
         <v>69.49013770003722</v>
@@ -13024,34 +13024,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ73">
-        <v>606.3691333176364</v>
+        <v>606.3691333176369</v>
       </c>
       <c r="AR73">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS73">
         <v>747.2553716424334</v>
       </c>
       <c r="AT73">
-        <v>1853.074112776495</v>
+        <v>1861.367420142602</v>
       </c>
       <c r="AU73">
-        <v>74.41095164078388</v>
+        <v>79.96736572005568</v>
       </c>
       <c r="AV73">
-        <v>274.122803499968</v>
+        <v>275.6889343317617</v>
       </c>
       <c r="AW73">
-        <v>10.63365575668297</v>
+        <v>11.42120302115515</v>
       </c>
       <c r="AX73">
-        <v>237.007589985238</v>
+        <v>236.6362842693028</v>
       </c>
       <c r="AY73">
-        <v>29.29175916517989</v>
+        <v>88.3464961046742</v>
       </c>
       <c r="AZ73">
-        <v>0.1774361853146271</v>
+        <v>0.5351629844533676</v>
       </c>
       <c r="BA73">
         <v>-62.64611583225545</v>
@@ -13071,7 +13071,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
         <v>58</v>
@@ -13110,7 +13110,7 @@
         <v>2</v>
       </c>
       <c r="O74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P74">
         <v>0.6</v>
@@ -13131,22 +13131,22 @@
         <v>75</v>
       </c>
       <c r="V74">
-        <v>431.2483331378107</v>
+        <v>431.4125573631087</v>
       </c>
       <c r="W74">
         <v>27.98958333333333</v>
       </c>
       <c r="X74">
-        <v>3699.310467118863</v>
+        <v>2676.938840006944</v>
       </c>
       <c r="Y74" t="s">
         <v>149</v>
       </c>
       <c r="Z74">
-        <v>431.2483331378107</v>
+        <v>431.4125573631087</v>
       </c>
       <c r="AA74">
-        <v>413.2483331378107</v>
+        <v>413.4125573631087</v>
       </c>
       <c r="AB74">
         <v>18</v>
@@ -13167,19 +13167,19 @@
         <v>0</v>
       </c>
       <c r="AH74">
-        <v>0.1722517816897125</v>
+        <v>0.1723272214351968</v>
       </c>
       <c r="AI74">
-        <v>0.1722517816897125</v>
+        <v>0.1723272214351968</v>
       </c>
       <c r="AJ74">
-        <v>0.1650621143167281</v>
+        <v>0.1651371433234399</v>
       </c>
       <c r="AL74">
-        <v>148.8323481292963</v>
+        <v>148.5724341281416</v>
       </c>
       <c r="AM74">
-        <v>264.5418471555601</v>
+        <v>265.4076745282997</v>
       </c>
       <c r="AO74">
         <v>69.49013770003722</v>
@@ -13188,34 +13188,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ74">
-        <v>606.5121529966668</v>
+        <v>606.3691333176364</v>
       </c>
       <c r="AR74">
-        <v>2503.592873800541</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS74">
         <v>747.2553716424334</v>
       </c>
       <c r="AT74">
-        <v>1863.704008778409</v>
+        <v>1873.184358684987</v>
       </c>
       <c r="AU74">
-        <v>84.81334321940444</v>
+        <v>91.14897138439015</v>
       </c>
       <c r="AV74">
-        <v>276.6166816177359</v>
+        <v>278.3684499156574</v>
       </c>
       <c r="AW74">
-        <v>12.07483446217584</v>
+        <v>12.96077538735779</v>
       </c>
       <c r="AX74">
-        <v>248.0539135488272</v>
+        <v>247.6207235469027</v>
       </c>
       <c r="AY74">
-        <v>20.77774436334484</v>
+        <v>93.69326650427368</v>
       </c>
       <c r="AZ74">
-        <v>0.1258621470456762</v>
+        <v>0.5675512933326056</v>
       </c>
       <c r="BA74">
         <v>-73.08713513763138</v>
@@ -13235,7 +13235,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
         <v>58</v>
@@ -13274,7 +13274,7 @@
         <v>2</v>
       </c>
       <c r="O75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P75">
         <v>0.6</v>
@@ -13295,22 +13295,22 @@
         <v>75</v>
       </c>
       <c r="V75">
-        <v>439.1332698430472</v>
+        <v>439.1964624021435</v>
       </c>
       <c r="W75">
         <v>27.98958333333333</v>
       </c>
       <c r="X75">
-        <v>3860.526056316216</v>
+        <v>2689.068312095013</v>
       </c>
       <c r="Y75" t="s">
         <v>150</v>
       </c>
       <c r="Z75">
-        <v>439.1332698430472</v>
+        <v>439.1964624021435</v>
       </c>
       <c r="AA75">
-        <v>421.1332698430472</v>
+        <v>421.1964624021435</v>
       </c>
       <c r="AB75">
         <v>18</v>
@@ -13331,19 +13331,19 @@
         <v>0</v>
       </c>
       <c r="AH75">
-        <v>0.1754112506468175</v>
+        <v>0.1754364928377056</v>
       </c>
       <c r="AI75">
-        <v>0.1754112506468175</v>
+        <v>0.1754364928377056</v>
       </c>
       <c r="AJ75">
-        <v>0.1682211725350606</v>
+        <v>0.1682464147259487</v>
       </c>
       <c r="AL75">
-        <v>155.474836957383</v>
+        <v>155.170757499586</v>
       </c>
       <c r="AM75">
-        <v>265.7802485021651</v>
+        <v>266.6451363666541</v>
       </c>
       <c r="AO75">
         <v>69.49013770003722</v>
@@ -13352,34 +13352,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ75">
-        <v>606.3691333176371</v>
+        <v>606.3691333176359</v>
       </c>
       <c r="AR75">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS75">
         <v>747.2553716424334</v>
       </c>
       <c r="AT75">
-        <v>1875.07317322039</v>
+        <v>1885.068087185881</v>
       </c>
       <c r="AU75">
-        <v>96.02868152318896</v>
+        <v>102.345401407581</v>
       </c>
       <c r="AV75">
-        <v>279.3672449590201</v>
+        <v>281.1492162801405</v>
       </c>
       <c r="AW75">
-        <v>13.58699645685498</v>
+        <v>14.50407991348644</v>
       </c>
       <c r="AX75">
-        <v>259.124728262305</v>
+        <v>258.6179291659767</v>
       </c>
       <c r="AY75">
-        <v>20.10972956150973</v>
+        <v>102.2578186827053</v>
       </c>
       <c r="AZ75">
-        <v>0.1218156165009273</v>
+        <v>0.6194314640966565</v>
       </c>
       <c r="BA75">
         <v>-83.52815444300728</v>
@@ -19303,7 +19303,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
         <v>58</v>
@@ -19342,7 +19342,7 @@
         <v>2</v>
       </c>
       <c r="O112">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P112">
         <v>0.6</v>
@@ -19363,22 +19363,22 @@
         <v>76</v>
       </c>
       <c r="V112">
-        <v>380.9270713015458</v>
+        <v>380.8515876388641</v>
       </c>
       <c r="W112">
         <v>27.98958333333333</v>
       </c>
       <c r="X112">
-        <v>3521.256858957</v>
+        <v>2723.011530791875</v>
       </c>
       <c r="Y112" t="s">
         <v>187</v>
       </c>
       <c r="Z112">
-        <v>380.9270713015458</v>
+        <v>380.8515876388641</v>
       </c>
       <c r="AA112">
-        <v>362.9270713015458</v>
+        <v>362.8515876388641</v>
       </c>
       <c r="AB112">
         <v>18</v>
@@ -19399,19 +19399,19 @@
         <v>0</v>
       </c>
       <c r="AH112">
-        <v>0.1521608554189385</v>
+        <v>0.1521307035616694</v>
       </c>
       <c r="AI112">
-        <v>0.1521608554189385</v>
+        <v>0.1521307035616694</v>
       </c>
       <c r="AJ112">
-        <v>0.1449707773071816</v>
+        <v>0.1449406254499125</v>
       </c>
       <c r="AL112">
-        <v>102.5342040859931</v>
+        <v>102.5334614745612</v>
       </c>
       <c r="AM112">
-        <v>260.7366089016203</v>
+        <v>260.6629180028401</v>
       </c>
       <c r="AO112">
         <v>69.49013770003722</v>
@@ -19420,7 +19420,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ112">
-        <v>606.3691333176362</v>
+        <v>606.3691333176359</v>
       </c>
       <c r="AR112">
         <v>2503.449854121511</v>
@@ -19429,25 +19429,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT112">
-        <v>1778.071111924317</v>
+        <v>1778.102223445763</v>
       </c>
       <c r="AU112">
-        <v>0.2388815814728886</v>
+        <v>0.2557264989332809</v>
       </c>
       <c r="AV112">
-        <v>260.770711297911</v>
+        <v>260.6994984356268</v>
       </c>
       <c r="AW112">
-        <v>0.03410239629069062</v>
+        <v>0.03658043278672841</v>
       </c>
       <c r="AX112">
-        <v>170.8903401433219</v>
+        <v>170.8891024576021</v>
       </c>
       <c r="AY112">
-        <v>56.74602768015372</v>
+        <v>56.91939036359895</v>
       </c>
       <c r="AZ112">
-        <v>0.3437416860675899</v>
+        <v>0.3447918385371963</v>
       </c>
       <c r="BA112">
         <v>-0.2088203861075186</v>
@@ -19467,7 +19467,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" t="s">
         <v>58</v>
@@ -19506,7 +19506,7 @@
         <v>2</v>
       </c>
       <c r="O113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P113">
         <v>0.6</v>
@@ -19527,22 +19527,22 @@
         <v>76</v>
       </c>
       <c r="V113">
-        <v>381.4202830048517</v>
+        <v>381.2852722959844</v>
       </c>
       <c r="W113">
         <v>27.98958333333333</v>
       </c>
       <c r="X113">
-        <v>3483.477102465928</v>
+        <v>2739.62519945344</v>
       </c>
       <c r="Y113" t="s">
         <v>188</v>
       </c>
       <c r="Z113">
-        <v>381.4202830048517</v>
+        <v>381.2852722959844</v>
       </c>
       <c r="AA113">
-        <v>363.4202830048517</v>
+        <v>363.2852722959844</v>
       </c>
       <c r="AB113">
         <v>18</v>
@@ -19563,19 +19563,19 @@
         <v>0</v>
       </c>
       <c r="AH113">
-        <v>0.1523578682340719</v>
+        <v>0.1523039383705897</v>
       </c>
       <c r="AI113">
-        <v>0.1523578682340719</v>
+        <v>0.1523039383705897</v>
       </c>
       <c r="AJ113">
-        <v>0.145167790122315</v>
+        <v>0.1451138602588329</v>
       </c>
       <c r="AL113">
-        <v>102.9198637810775</v>
+        <v>102.9161507239182</v>
       </c>
       <c r="AM113">
-        <v>260.8419360870893</v>
+        <v>260.7158891977292</v>
       </c>
       <c r="AO113">
         <v>69.49013770003722</v>
@@ -19584,34 +19584,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ113">
-        <v>606.369133317637</v>
+        <v>606.3691333176362</v>
       </c>
       <c r="AR113">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS113">
         <v>747.2553716424334</v>
       </c>
       <c r="AT113">
-        <v>1778.999175298228</v>
+        <v>1779.235791584138</v>
       </c>
       <c r="AU113">
-        <v>1.203572534459867</v>
+        <v>1.274516396942498</v>
       </c>
       <c r="AV113">
-        <v>261.013415524763</v>
+        <v>260.8980568337522</v>
       </c>
       <c r="AW113">
-        <v>0.1714794376736962</v>
+        <v>0.1821676360229962</v>
       </c>
       <c r="AX113">
-        <v>171.5331063017959</v>
+        <v>171.526917873197</v>
       </c>
       <c r="AY113">
-        <v>56.37874649600694</v>
+        <v>57.24555991323321</v>
       </c>
       <c r="AZ113">
-        <v>0.3415168633150421</v>
+        <v>0.3467676256630747</v>
       </c>
       <c r="BA113">
         <v>-1.044101930537593</v>
@@ -19631,7 +19631,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
         <v>58</v>
@@ -19670,7 +19670,7 @@
         <v>2</v>
       </c>
       <c r="O114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P114">
         <v>0.6</v>
@@ -19691,22 +19691,22 @@
         <v>76</v>
       </c>
       <c r="V114">
-        <v>382.0557992520432</v>
+        <v>381.9482837184927</v>
       </c>
       <c r="W114">
         <v>27.98958333333333</v>
       </c>
       <c r="X114">
-        <v>3503.231243696995</v>
+        <v>2648.846831273753</v>
       </c>
       <c r="Y114" t="s">
         <v>189</v>
       </c>
       <c r="Z114">
-        <v>382.0557992520432</v>
+        <v>381.9482837184927</v>
       </c>
       <c r="AA114">
-        <v>364.0557992520432</v>
+        <v>363.9482837184927</v>
       </c>
       <c r="AB114">
         <v>18</v>
@@ -19727,19 +19727,19 @@
         <v>0</v>
       </c>
       <c r="AH114">
-        <v>0.1526117244262161</v>
+        <v>0.1525687774770798</v>
       </c>
       <c r="AI114">
-        <v>0.1526117244262161</v>
+        <v>0.1525687774770798</v>
       </c>
       <c r="AJ114">
-        <v>0.1454216463144593</v>
+        <v>0.1453786993653229</v>
       </c>
       <c r="AL114">
-        <v>103.4019383999331</v>
+        <v>103.3945122856143</v>
       </c>
       <c r="AM114">
-        <v>260.9925966869845</v>
+        <v>260.9030087924488</v>
       </c>
       <c r="AO114">
         <v>69.49013770003722</v>
@@ -19748,34 +19748,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ114">
-        <v>606.3691333176372</v>
+        <v>606.3691333176364</v>
       </c>
       <c r="AR114">
-        <v>2503.449854121512</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS114">
         <v>747.2553716424334</v>
       </c>
       <c r="AT114">
-        <v>1780.193296201322</v>
+        <v>1780.44424567616</v>
       </c>
       <c r="AU114">
-        <v>2.38100447016619</v>
+        <v>2.559986867032349</v>
       </c>
       <c r="AV114">
-        <v>261.3322542008556</v>
+        <v>261.2689358008025</v>
       </c>
       <c r="AW114">
-        <v>0.339657513871069</v>
+        <v>0.365927008353696</v>
       </c>
       <c r="AX114">
-        <v>172.3365639998885</v>
+        <v>172.3241871426906</v>
       </c>
       <c r="AY114">
-        <v>55.91964501582341</v>
+        <v>57.65327185027587</v>
       </c>
       <c r="AZ114">
-        <v>0.3387358348743569</v>
+        <v>0.3492373595704216</v>
       </c>
       <c r="BA114">
         <v>-2.088203861075186</v>
@@ -19795,7 +19795,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" t="s">
         <v>58</v>
@@ -19834,7 +19834,7 @@
         <v>2</v>
       </c>
       <c r="O115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P115">
         <v>0.6</v>
@@ -19855,22 +19855,22 @@
         <v>76</v>
       </c>
       <c r="V115">
-        <v>383.2562200424893</v>
+        <v>383.1552404662701</v>
       </c>
       <c r="W115">
         <v>27.98958333333333</v>
       </c>
       <c r="X115">
-        <v>3507.201664059889</v>
+        <v>2234.495170095935</v>
       </c>
       <c r="Y115" t="s">
         <v>190</v>
       </c>
       <c r="Z115">
-        <v>383.2562200424893</v>
+        <v>383.1552404662701</v>
       </c>
       <c r="AA115">
-        <v>365.2562200424893</v>
+        <v>365.1552404662701</v>
       </c>
       <c r="AB115">
         <v>18</v>
@@ -19891,19 +19891,19 @@
         <v>0</v>
       </c>
       <c r="AH115">
-        <v>0.153091231051232</v>
+        <v>0.1530508948823038</v>
       </c>
       <c r="AI115">
-        <v>0.153091231051232</v>
+        <v>0.1530508948823038</v>
       </c>
       <c r="AJ115">
-        <v>0.1459011529394751</v>
+        <v>0.1458608167705469</v>
       </c>
       <c r="AL115">
-        <v>104.3660876376442</v>
+        <v>104.3512354090068</v>
       </c>
       <c r="AM115">
-        <v>261.2233061828381</v>
+        <v>261.1581818846483</v>
       </c>
       <c r="AO115">
         <v>69.49013770003722</v>
@@ -19912,7 +19912,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ115">
-        <v>606.3691333176364</v>
+        <v>606.3691333176362</v>
       </c>
       <c r="AR115">
         <v>2503.449854121511</v>
@@ -19921,25 +19921,25 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AT115">
-        <v>1782.53988281513</v>
+        <v>1783.159955554303</v>
       </c>
       <c r="AU115">
-        <v>4.82004750573152</v>
+        <v>5.149298723516795</v>
       </c>
       <c r="AV115">
-        <v>261.9091050102562</v>
+        <v>261.8932629524712</v>
       </c>
       <c r="AW115">
-        <v>0.68579882741799</v>
+        <v>0.735081067822886</v>
       </c>
       <c r="AX115">
-        <v>173.9434793960736</v>
+        <v>173.9187256816781</v>
       </c>
       <c r="AY115">
-        <v>55.00144205545645</v>
+        <v>58.46869572436148</v>
       </c>
       <c r="AZ115">
-        <v>0.3331737779929873</v>
+        <v>0.3541768273851174</v>
       </c>
       <c r="BA115">
         <v>-4.176407722150358</v>
@@ -19959,7 +19959,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
         <v>58</v>
@@ -19998,7 +19998,7 @@
         <v>2</v>
       </c>
       <c r="O116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>0.6</v>
@@ -20019,22 +20019,22 @@
         <v>76</v>
       </c>
       <c r="V116">
-        <v>384.4628389943192</v>
+        <v>384.3460242407361</v>
       </c>
       <c r="W116">
         <v>27.98958333333333</v>
       </c>
       <c r="X116">
-        <v>3517.672933017369</v>
+        <v>2222.649219976738</v>
       </c>
       <c r="Y116" t="s">
         <v>191</v>
       </c>
       <c r="Z116">
-        <v>384.4628389943192</v>
+        <v>384.3460242407361</v>
       </c>
       <c r="AA116">
-        <v>366.4628389943192</v>
+        <v>366.3460242407361</v>
       </c>
       <c r="AB116">
         <v>18</v>
@@ -20055,19 +20055,19 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>0.1535677344819415</v>
+        <v>0.153526552013005</v>
       </c>
       <c r="AI116">
-        <v>0.1535677344819415</v>
+        <v>0.153526552013005</v>
       </c>
       <c r="AJ116">
-        <v>0.1463779128911068</v>
+        <v>0.1463364739012481</v>
       </c>
       <c r="AL116">
-        <v>105.3302368753552</v>
+        <v>105.3079585323991</v>
       </c>
       <c r="AM116">
-        <v>261.445372851811</v>
+        <v>261.3983318248424</v>
       </c>
       <c r="AO116">
         <v>69.49013770003722</v>
@@ -20076,34 +20076,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ116">
-        <v>606.4584522606954</v>
+        <v>606.3691333176372</v>
       </c>
       <c r="AR116">
-        <v>2503.53917306457</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS116">
         <v>747.2553716424334</v>
       </c>
       <c r="AT116">
-        <v>1784.803055888001</v>
+        <v>1785.658820641685</v>
       </c>
       <c r="AU116">
-        <v>7.104346643925604</v>
+        <v>7.644095875366924</v>
       </c>
       <c r="AV116">
-        <v>262.460308844747</v>
+        <v>262.4886081430578</v>
       </c>
       <c r="AW116">
-        <v>1.014935992936055</v>
+        <v>1.090276318215389</v>
       </c>
       <c r="AX116">
-        <v>175.5503947922587</v>
+        <v>175.5132642206652</v>
       </c>
       <c r="AY116">
-        <v>51.63323909508937</v>
+        <v>59.47393594683706</v>
       </c>
       <c r="AZ116">
-        <v>0.3127707328469858</v>
+        <v>0.3602661165054828</v>
       </c>
       <c r="BA116">
         <v>-6.264611583225545</v>
@@ -20123,7 +20123,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
         <v>58</v>
@@ -20162,7 +20162,7 @@
         <v>2</v>
       </c>
       <c r="O117">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>0.6</v>
@@ -20183,22 +20183,22 @@
         <v>76</v>
       </c>
       <c r="V117">
-        <v>385.5795539956688</v>
+        <v>385.6415511956682</v>
       </c>
       <c r="W117">
         <v>27.98958333333333</v>
       </c>
       <c r="X117">
-        <v>3551.201552544255</v>
+        <v>2199.509796521161</v>
       </c>
       <c r="Y117" t="s">
         <v>192</v>
       </c>
       <c r="Z117">
-        <v>385.5795539956688</v>
+        <v>385.6415511956682</v>
       </c>
       <c r="AA117">
-        <v>367.5795539956688</v>
+        <v>367.6415511956682</v>
       </c>
       <c r="AB117">
         <v>18</v>
@@ -20219,19 +20219,19 @@
         <v>0</v>
       </c>
       <c r="AH117">
-        <v>0.1540137890168032</v>
+        <v>0.1540330573912054</v>
       </c>
       <c r="AI117">
-        <v>0.1540137890168032</v>
+        <v>0.1540330573912054</v>
       </c>
       <c r="AJ117">
-        <v>0.1468239674259686</v>
+        <v>0.1468434923029897</v>
       </c>
       <c r="AL117">
-        <v>106.2943861130663</v>
+        <v>106.2646816557915</v>
       </c>
       <c r="AM117">
-        <v>261.5923765585682</v>
+        <v>261.7139313416287</v>
       </c>
       <c r="AO117">
         <v>69.49013770003722</v>
@@ -20240,34 +20240,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ117">
-        <v>606.4584522606959</v>
+        <v>606.5477712037547</v>
       </c>
       <c r="AR117">
-        <v>2503.539173064571</v>
+        <v>2503.62849200763</v>
       </c>
       <c r="AS117">
         <v>747.2553716424334</v>
       </c>
       <c r="AT117">
-        <v>1787.287026482344</v>
+        <v>1788.202090840202</v>
       </c>
       <c r="AU117">
-        <v>9.503549481750063</v>
+        <v>10.12490727409451</v>
       </c>
       <c r="AV117">
-        <v>262.9495672774902</v>
+        <v>263.161327941886</v>
       </c>
       <c r="AW117">
-        <v>1.357190718921999</v>
+        <v>1.447396600257348</v>
       </c>
       <c r="AX117">
-        <v>177.1573101884438</v>
+        <v>177.1078027596525</v>
       </c>
       <c r="AY117">
-        <v>50.71503613472233</v>
+        <v>55.64329002675701</v>
       </c>
       <c r="AZ117">
-        <v>0.3072086759656157</v>
+        <v>0.3370618017520685</v>
       </c>
       <c r="BA117">
         <v>-8.352815444300731</v>
@@ -20287,7 +20287,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
         <v>58</v>
@@ -20326,7 +20326,7 @@
         <v>2</v>
       </c>
       <c r="O118">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P118">
         <v>0.6</v>
@@ -20347,22 +20347,22 @@
         <v>76</v>
       </c>
       <c r="V118">
-        <v>386.7995666504575</v>
+        <v>386.762278119261</v>
       </c>
       <c r="W118">
         <v>27.98958333333333</v>
       </c>
       <c r="X118">
-        <v>3564.004255189095</v>
+        <v>2193.99383540079</v>
       </c>
       <c r="Y118" t="s">
         <v>193</v>
       </c>
       <c r="Z118">
-        <v>386.7995666504575</v>
+        <v>386.762278119261</v>
       </c>
       <c r="AA118">
-        <v>368.7995666504575</v>
+        <v>368.762278119261</v>
       </c>
       <c r="AB118">
         <v>18</v>
@@ -20383,19 +20383,19 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>0.1545011042016083</v>
+        <v>0.1544917216865845</v>
       </c>
       <c r="AI118">
-        <v>0.1545011042016083</v>
+        <v>0.1544917216865845</v>
       </c>
       <c r="AJ118">
-        <v>0.1473112826107736</v>
+        <v>0.1473016435748276</v>
       </c>
       <c r="AL118">
-        <v>107.2585353507774</v>
+        <v>107.2214047791839</v>
       </c>
       <c r="AM118">
-        <v>261.8426779187643</v>
+        <v>261.9140947801343</v>
       </c>
       <c r="AO118">
         <v>69.49013770003722</v>
@@ -20404,34 +20404,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ118">
-        <v>606.458452260696</v>
+        <v>606.3691333176371</v>
       </c>
       <c r="AR118">
-        <v>2503.539173064571</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS118">
         <v>747.2553716424334</v>
       </c>
       <c r="AT118">
-        <v>1789.531852695516</v>
+        <v>1790.818657512909</v>
       </c>
       <c r="AU118">
-        <v>11.82194763989568</v>
+        <v>12.66588615711149</v>
       </c>
       <c r="AV118">
-        <v>263.5324454915974</v>
+        <v>263.723880437667</v>
       </c>
       <c r="AW118">
-        <v>1.689767572833067</v>
+        <v>1.809785657532682</v>
       </c>
       <c r="AX118">
-        <v>178.764225584629</v>
+        <v>178.7023412986398</v>
       </c>
       <c r="AY118">
-        <v>49.79683317435533</v>
+        <v>61.61264410667687</v>
       </c>
       <c r="AZ118">
-        <v>0.3016466190842457</v>
+        <v>0.3732214400571781</v>
       </c>
       <c r="BA118">
         <v>-10.4410193053759</v>
@@ -20451,7 +20451,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" t="s">
         <v>58</v>
@@ -20490,7 +20490,7 @@
         <v>2</v>
       </c>
       <c r="O119">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P119">
         <v>0.6</v>
@@ -20511,22 +20511,22 @@
         <v>76</v>
       </c>
       <c r="V119">
-        <v>387.928079016304</v>
+        <v>387.9646463245958</v>
       </c>
       <c r="W119">
         <v>27.98958333333333</v>
       </c>
       <c r="X119">
-        <v>3503.383113809861</v>
+        <v>2180.129495403729</v>
       </c>
       <c r="Y119" t="s">
         <v>194</v>
       </c>
       <c r="Z119">
-        <v>387.928079016304</v>
+        <v>387.9646463245958</v>
       </c>
       <c r="AA119">
-        <v>369.928079016304</v>
+        <v>369.9646463245958</v>
       </c>
       <c r="AB119">
         <v>18</v>
@@ -20547,19 +20547,19 @@
         <v>0</v>
       </c>
       <c r="AH119">
-        <v>0.1549518710112464</v>
+        <v>0.1549664772569506</v>
       </c>
       <c r="AI119">
-        <v>0.1549518710112464</v>
+        <v>0.1549664772569506</v>
       </c>
       <c r="AJ119">
-        <v>0.1477620494204117</v>
+        <v>0.147776655666116</v>
       </c>
       <c r="AL119">
-        <v>108.2226845884884</v>
+        <v>108.1781279025762</v>
       </c>
       <c r="AM119">
-        <v>262.0014789900184</v>
+        <v>262.151376535588</v>
       </c>
       <c r="AO119">
         <v>69.49013770003722</v>
@@ -20568,34 +20568,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ119">
-        <v>606.4584522606965</v>
+        <v>606.4584522606962</v>
       </c>
       <c r="AR119">
-        <v>2503.539173064572</v>
+        <v>2503.539173064571</v>
       </c>
       <c r="AS119">
         <v>747.2553716424334</v>
       </c>
       <c r="AT119">
-        <v>1791.956771749892</v>
+        <v>1793.40699956059</v>
       </c>
       <c r="AU119">
-        <v>14.27054795289518</v>
+        <v>15.19884629875284</v>
       </c>
       <c r="AV119">
-        <v>264.0414792251171</v>
+        <v>264.324749459554</v>
       </c>
       <c r="AW119">
-        <v>2.040000235098703</v>
+        <v>2.1733729239659</v>
       </c>
       <c r="AX119">
-        <v>180.3711409808141</v>
+        <v>180.296879837627</v>
       </c>
       <c r="AY119">
-        <v>48.87863021398835</v>
+        <v>60.23199818659676</v>
       </c>
       <c r="AZ119">
-        <v>0.296084562202876</v>
+        <v>0.3648581135683946</v>
       </c>
       <c r="BA119">
         <v>-12.52922316645109</v>
@@ -20615,7 +20615,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
         <v>58</v>
@@ -20654,7 +20654,7 @@
         <v>2</v>
       </c>
       <c r="O120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P120">
         <v>0.6</v>
@@ -20675,22 +20675,22 @@
         <v>76</v>
       </c>
       <c r="V120">
-        <v>389.0595607687877</v>
+        <v>389.0775013748496</v>
       </c>
       <c r="W120">
         <v>27.98958333333333</v>
       </c>
       <c r="X120">
-        <v>3527.862946629059</v>
+        <v>2180.17499457486</v>
       </c>
       <c r="Y120" t="s">
         <v>195</v>
       </c>
       <c r="Z120">
-        <v>389.0595607687877</v>
+        <v>389.0775013748496</v>
       </c>
       <c r="AA120">
-        <v>371.0595607687877</v>
+        <v>371.0775013748496</v>
       </c>
       <c r="AB120">
         <v>18</v>
@@ -20711,19 +20711,19 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>0.1554038238964489</v>
+        <v>0.1554165348006866</v>
       </c>
       <c r="AI120">
-        <v>0.1554038238964489</v>
+        <v>0.1554165348006866</v>
       </c>
       <c r="AJ120">
-        <v>0.1482140023056142</v>
+        <v>0.1482264566889297</v>
       </c>
       <c r="AL120">
-        <v>109.1868338261995</v>
+        <v>109.1348510259686</v>
       </c>
       <c r="AM120">
-        <v>262.1632494479098</v>
+        <v>262.3288271124899</v>
       </c>
       <c r="AO120">
         <v>69.49013770003722</v>
@@ -20732,34 +20732,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ120">
-        <v>606.4584522606959</v>
+        <v>606.3691333176366</v>
       </c>
       <c r="AR120">
-        <v>2503.539173064571</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS120">
         <v>747.2553716424334</v>
       </c>
       <c r="AT120">
-        <v>1794.399305700044</v>
+        <v>1795.931266126644</v>
       </c>
       <c r="AU120">
-        <v>16.65544430901646</v>
+        <v>17.6112627952354</v>
       </c>
       <c r="AV120">
-        <v>264.5476320624106</v>
+        <v>264.8471943474823</v>
       </c>
       <c r="AW120">
-        <v>2.384382614500776</v>
+        <v>2.518367234992467</v>
       </c>
       <c r="AX120">
-        <v>181.9780563769992</v>
+        <v>181.8914183766143</v>
       </c>
       <c r="AY120">
-        <v>47.96042725362126</v>
+        <v>63.75135226651664</v>
       </c>
       <c r="AZ120">
-        <v>0.2905225053215056</v>
+        <v>0.3861767636088732</v>
       </c>
       <c r="BA120">
         <v>-14.61742702752628</v>
@@ -20779,7 +20779,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
         <v>58</v>
@@ -20818,7 +20818,7 @@
         <v>2</v>
       </c>
       <c r="O121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P121">
         <v>0.6</v>
@@ -20839,22 +20839,22 @@
         <v>76</v>
       </c>
       <c r="V121">
-        <v>390.3135600103901</v>
+        <v>390.3051041266855</v>
       </c>
       <c r="W121">
         <v>27.98958333333333</v>
       </c>
       <c r="X121">
-        <v>3516.523603225127</v>
+        <v>2168.218658434227</v>
       </c>
       <c r="Y121" t="s">
         <v>196</v>
       </c>
       <c r="Z121">
-        <v>390.3135600103901</v>
+        <v>390.3051041266855</v>
       </c>
       <c r="AA121">
-        <v>372.3135600103901</v>
+        <v>372.3051041266855</v>
       </c>
       <c r="AB121">
         <v>18</v>
@@ -20875,19 +20875,19 @@
         <v>0</v>
       </c>
       <c r="AH121">
-        <v>0.1559047144976801</v>
+        <v>0.1559035549877238</v>
       </c>
       <c r="AI121">
-        <v>0.1559047144976801</v>
+        <v>0.1559035549877238</v>
       </c>
       <c r="AJ121">
-        <v>0.1487148929068455</v>
+        <v>0.1487136311048218</v>
       </c>
       <c r="AL121">
-        <v>110.1509830639106</v>
+        <v>110.091574149361</v>
       </c>
       <c r="AM121">
-        <v>262.4475373949197</v>
+        <v>262.5972616371118</v>
       </c>
       <c r="AO121">
         <v>69.49013770003722</v>
@@ -20896,34 +20896,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ121">
-        <v>606.4584522606959</v>
+        <v>606.4228340536069</v>
       </c>
       <c r="AR121">
-        <v>2503.539173064571</v>
+        <v>2503.503554857482</v>
       </c>
       <c r="AS121">
         <v>747.2553716424334</v>
       </c>
       <c r="AT121">
-        <v>1796.822914208513</v>
+        <v>1798.706952913793</v>
       </c>
       <c r="AU121">
-        <v>19.1126171113421</v>
+        <v>20.30326139108604</v>
       </c>
       <c r="AV121">
-        <v>265.1802077370187</v>
+        <v>265.5026197452122</v>
       </c>
       <c r="AW121">
-        <v>2.732670342099023</v>
+        <v>2.905358108100399</v>
       </c>
       <c r="AX121">
-        <v>183.5849717731843</v>
+        <v>183.4859569156016</v>
       </c>
       <c r="AY121">
-        <v>47.04222429325429</v>
+        <v>63.3477063464365</v>
       </c>
       <c r="AZ121">
-        <v>0.2849604484401359</v>
+        <v>0.3837316597872504</v>
       </c>
       <c r="BA121">
         <v>-16.70563088860146</v>
